--- a/Data/Validation data/Energy_use_validation_data.xlsx
+++ b/Data/Validation data/Energy_use_validation_data.xlsx
@@ -5,24 +5,43 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solveig\NTNU\Industrial_Ecology\TEP4290\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grace\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0637B3DB-6544-45E9-88FB-230DEBD886C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C76824-D24C-4D04-A4A6-EE812E69FEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Forbruk" sheetId="2" r:id="rId1"/>
+    <sheet name="ForbrukiAlt" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Total energy consumption (kWh)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1992</t>
   </si>
   <si>
     <t>1993</t>
@@ -34,26 +53,188 @@
     <t>1995</t>
   </si>
   <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
     <t>2001</t>
   </si>
   <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
     <t>2004</t>
   </si>
   <si>
+    <t>2005</t>
+  </si>
+  <si>
     <t>2006</t>
   </si>
   <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
     <t>2009</t>
   </si>
   <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
     <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>1974</t>
+  </si>
+  <si>
+    <t>1975</t>
+  </si>
+  <si>
+    <t>1976</t>
+  </si>
+  <si>
+    <t>1977</t>
+  </si>
+  <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>1984</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>1964</t>
+  </si>
+  <si>
+    <t>1965</t>
+  </si>
+  <si>
+    <t>1966</t>
+  </si>
+  <si>
+    <t>1967</t>
+  </si>
+  <si>
+    <t>1968</t>
+  </si>
+  <si>
+    <t>1969</t>
+  </si>
+  <si>
+    <t>1970</t>
+  </si>
+  <si>
+    <t>1971</t>
+  </si>
+  <si>
+    <t>1972</t>
+  </si>
+  <si>
+    <t>1973</t>
+  </si>
+  <si>
+    <t>1960</t>
+  </si>
+  <si>
+    <t>1961</t>
+  </si>
+  <si>
+    <t>1962</t>
+  </si>
+  <si>
+    <t>1963</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>TWh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -64,6 +245,11 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -88,10 +274,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,87 +579,532 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>22706</v>
+        <v>59</v>
+      </c>
+      <c r="B2">
+        <v>21.7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>23525</v>
+        <v>60</v>
+      </c>
+      <c r="B3">
+        <v>21.8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>23633</v>
+        <v>61</v>
+      </c>
+      <c r="B4">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>22399</v>
+        <v>62</v>
+      </c>
+      <c r="B5">
+        <v>23.8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>21143</v>
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <v>22.8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>21644</v>
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>24.5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>20415</v>
+        <v>51</v>
+      </c>
+      <c r="B8">
+        <v>26.9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17">
+        <v>29.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20">
+        <v>34.799999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22">
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23">
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25">
+        <v>36.799999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26">
+        <v>37.700000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27">
+        <v>40.700000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28">
+        <v>42.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29">
+        <v>43.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30">
+        <v>41.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>40.427999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>41.749000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>41.401000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>42.241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>43.856999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>44.628999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>46.734000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>44.868000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <v>20230</v>
+      <c r="B40">
+        <v>45.045000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>45.491999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <v>44.081000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43">
+        <v>45.761000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44">
+        <v>45.768000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45">
+        <v>43.970999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46">
+        <v>43.529000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47">
+        <v>44.23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48">
+        <v>44.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49">
+        <v>45.19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50">
+        <v>44.841000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51">
+        <v>46.417000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52">
+        <v>51.493000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53">
+        <v>45.731000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54">
+        <v>48.499000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55">
+        <v>47.604999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56">
+        <v>44.241</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57">
+        <v>46.213000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58">
+        <v>47.555999999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59">
+        <v>48.14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60">
+        <v>48.076000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61">
+        <v>46.887</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62">
+        <v>47.030999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63">
+        <v>49.610999999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64">
+        <v>44.712000000000003</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>